--- a/Excel/2021.08.04.xlsx
+++ b/Excel/2021.08.04.xlsx
@@ -4056,10 +4056,10 @@
         <v>8.720000000000001</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1399999999999988</v>
+        <v>0.1499999999999986</v>
       </c>
       <c r="S59" t="n">
-        <v>8.859999999999999</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -11557,10 +11557,10 @@
         <v>94641</v>
       </c>
       <c r="D2" t="n">
-        <v>-12530</v>
+        <v>-12528</v>
       </c>
       <c r="E2" t="n">
-        <v>82111</v>
+        <v>82113</v>
       </c>
     </row>
     <row r="3">
@@ -11578,10 +11578,10 @@
         <v>77266</v>
       </c>
       <c r="D3" t="n">
-        <v>2767</v>
+        <v>2773</v>
       </c>
       <c r="E3" t="n">
-        <v>80033</v>
+        <v>80039</v>
       </c>
     </row>
     <row r="4">
@@ -11599,10 +11599,10 @@
         <v>63869</v>
       </c>
       <c r="D4" t="n">
-        <v>-3445</v>
+        <v>-3442</v>
       </c>
       <c r="E4" t="n">
-        <v>60424</v>
+        <v>60427</v>
       </c>
     </row>
     <row r="5">
@@ -11662,10 +11662,10 @@
         <v>35245</v>
       </c>
       <c r="D7" t="n">
-        <v>-7425</v>
+        <v>-7424</v>
       </c>
       <c r="E7" t="n">
-        <v>27820</v>
+        <v>27821</v>
       </c>
     </row>
     <row r="8">
@@ -11704,10 +11704,10 @@
         <v>30598</v>
       </c>
       <c r="D9" t="n">
-        <v>-3542</v>
+        <v>-3543</v>
       </c>
       <c r="E9" t="n">
-        <v>27056</v>
+        <v>27055</v>
       </c>
     </row>
     <row r="10">
@@ -11746,10 +11746,10 @@
         <v>27509</v>
       </c>
       <c r="D11" t="n">
-        <v>-491</v>
+        <v>-489</v>
       </c>
       <c r="E11" t="n">
-        <v>27018</v>
+        <v>27020</v>
       </c>
     </row>
     <row r="12" ht="28.8" customHeight="1">
@@ -11767,10 +11767,10 @@
         <v>26507</v>
       </c>
       <c r="D12" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E12" t="n">
-        <v>27352</v>
+        <v>27351</v>
       </c>
     </row>
     <row r="13">
@@ -11830,10 +11830,10 @@
         <v>22439</v>
       </c>
       <c r="D15" t="n">
-        <v>2765</v>
+        <v>2772</v>
       </c>
       <c r="E15" t="n">
-        <v>25204</v>
+        <v>25211</v>
       </c>
     </row>
     <row r="16">
@@ -11872,10 +11872,10 @@
         <v>21119</v>
       </c>
       <c r="D17" t="n">
-        <v>11825</v>
+        <v>11832</v>
       </c>
       <c r="E17" t="n">
-        <v>32944</v>
+        <v>32951</v>
       </c>
     </row>
     <row r="18">
@@ -11893,10 +11893,10 @@
         <v>20297</v>
       </c>
       <c r="D18" t="n">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E18" t="n">
-        <v>21520</v>
+        <v>21518</v>
       </c>
     </row>
     <row r="19">
@@ -11956,10 +11956,10 @@
         <v>18457</v>
       </c>
       <c r="D21" t="n">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E21" t="n">
-        <v>19692</v>
+        <v>19694</v>
       </c>
     </row>
     <row r="22">
@@ -11977,10 +11977,10 @@
         <v>17796</v>
       </c>
       <c r="D22" t="n">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E22" t="n">
-        <v>18828</v>
+        <v>18830</v>
       </c>
     </row>
     <row r="23">
@@ -12103,10 +12103,10 @@
         <v>15408</v>
       </c>
       <c r="D28" t="n">
-        <v>-1006</v>
+        <v>-1005</v>
       </c>
       <c r="E28" t="n">
-        <v>14402</v>
+        <v>14403</v>
       </c>
     </row>
     <row r="29">
@@ -12187,10 +12187,10 @@
         <v>13109</v>
       </c>
       <c r="D32" t="n">
-        <v>-1733</v>
+        <v>-1731</v>
       </c>
       <c r="E32" t="n">
-        <v>11376</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="33">
@@ -12355,10 +12355,10 @@
         <v>11172</v>
       </c>
       <c r="D40" t="n">
-        <v>-126</v>
+        <v>-124</v>
       </c>
       <c r="E40" t="n">
-        <v>11046</v>
+        <v>11048</v>
       </c>
     </row>
     <row r="41">
@@ -12418,10 +12418,10 @@
         <v>10671</v>
       </c>
       <c r="D43" t="n">
-        <v>-726</v>
+        <v>-727</v>
       </c>
       <c r="E43" t="n">
-        <v>9945</v>
+        <v>9944</v>
       </c>
     </row>
     <row r="44">
@@ -12460,10 +12460,10 @@
         <v>10462</v>
       </c>
       <c r="D45" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E45" t="n">
-        <v>10622</v>
+        <v>10623</v>
       </c>
     </row>
     <row r="46">
@@ -12587,7 +12587,7 @@
       </c>
       <c r="C52" s="11" t="n"/>
       <c r="E52" t="n">
-        <v>12993</v>
+        <v>12994</v>
       </c>
     </row>
     <row r="53">
@@ -23382,10 +23382,10 @@
         <v>1456415</v>
       </c>
       <c r="R32" t="n">
-        <v>130154</v>
+        <v>130349</v>
       </c>
       <c r="S32" t="n">
-        <v>1586569</v>
+        <v>1586764</v>
       </c>
     </row>
     <row r="33">
@@ -24478,10 +24478,10 @@
         <v>1671947</v>
       </c>
       <c r="R50" t="n">
-        <v>216252</v>
+        <v>250387</v>
       </c>
       <c r="S50" t="n">
-        <v>1888199</v>
+        <v>1922334</v>
       </c>
     </row>
     <row r="51">
@@ -32764,10 +32764,10 @@
         <v>194251</v>
       </c>
       <c r="D2" t="n">
-        <v>-12393</v>
+        <v>-12381</v>
       </c>
       <c r="E2" t="n">
-        <v>181858</v>
+        <v>181870</v>
       </c>
     </row>
     <row r="3">
@@ -32785,10 +32785,10 @@
         <v>161956</v>
       </c>
       <c r="D3" t="n">
-        <v>-5491</v>
+        <v>-5485</v>
       </c>
       <c r="E3" t="n">
-        <v>156465</v>
+        <v>156471</v>
       </c>
     </row>
     <row r="4">
@@ -32806,10 +32806,10 @@
         <v>156450</v>
       </c>
       <c r="D4" t="n">
-        <v>-1990</v>
+        <v>-1984</v>
       </c>
       <c r="E4" t="n">
-        <v>154460</v>
+        <v>154466</v>
       </c>
     </row>
     <row r="5">
@@ -32827,10 +32827,10 @@
         <v>155992</v>
       </c>
       <c r="D5" t="n">
-        <v>-19321</v>
+        <v>-19312</v>
       </c>
       <c r="E5" t="n">
-        <v>136671</v>
+        <v>136680</v>
       </c>
     </row>
     <row r="6">
@@ -32848,10 +32848,10 @@
         <v>145866</v>
       </c>
       <c r="D6" t="n">
-        <v>-14479</v>
+        <v>-14466</v>
       </c>
       <c r="E6" t="n">
-        <v>131387</v>
+        <v>131400</v>
       </c>
     </row>
     <row r="7">
@@ -32869,10 +32869,10 @@
         <v>139632</v>
       </c>
       <c r="D7" t="n">
-        <v>-11156</v>
+        <v>-11144</v>
       </c>
       <c r="E7" t="n">
-        <v>128476</v>
+        <v>128488</v>
       </c>
     </row>
     <row r="8">
@@ -32890,10 +32890,10 @@
         <v>95117</v>
       </c>
       <c r="D8" t="n">
-        <v>-4909</v>
+        <v>-4905</v>
       </c>
       <c r="E8" t="n">
-        <v>90208</v>
+        <v>90212</v>
       </c>
     </row>
     <row r="9">
@@ -32911,10 +32911,10 @@
         <v>93126</v>
       </c>
       <c r="D9" t="n">
-        <v>-12380</v>
+        <v>-12370</v>
       </c>
       <c r="E9" t="n">
-        <v>80746</v>
+        <v>80756</v>
       </c>
     </row>
     <row r="10">
@@ -32932,10 +32932,10 @@
         <v>78250</v>
       </c>
       <c r="D10" t="n">
-        <v>-16548</v>
+        <v>-16542</v>
       </c>
       <c r="E10" t="n">
-        <v>61702</v>
+        <v>61708</v>
       </c>
     </row>
     <row r="11">
@@ -32953,10 +32953,10 @@
         <v>76955</v>
       </c>
       <c r="D11" t="n">
-        <v>-1082</v>
+        <v>-1073</v>
       </c>
       <c r="E11" t="n">
-        <v>75873</v>
+        <v>75882</v>
       </c>
     </row>
     <row r="12">
@@ -32974,10 +32974,10 @@
         <v>75805</v>
       </c>
       <c r="D12" t="n">
-        <v>-3258</v>
+        <v>-3248</v>
       </c>
       <c r="E12" t="n">
-        <v>72547</v>
+        <v>72557</v>
       </c>
     </row>
     <row r="13">
@@ -32995,10 +32995,10 @@
         <v>74500</v>
       </c>
       <c r="D13" t="n">
-        <v>-2902</v>
+        <v>-2897</v>
       </c>
       <c r="E13" t="n">
-        <v>71598</v>
+        <v>71603</v>
       </c>
     </row>
     <row r="14">
@@ -33016,10 +33016,10 @@
         <v>72046</v>
       </c>
       <c r="D14" t="n">
-        <v>-13123</v>
+        <v>-13115</v>
       </c>
       <c r="E14" t="n">
-        <v>58923</v>
+        <v>58931</v>
       </c>
     </row>
     <row r="15">
@@ -33037,10 +33037,10 @@
         <v>70294</v>
       </c>
       <c r="D15" t="n">
-        <v>-3246</v>
+        <v>-3242</v>
       </c>
       <c r="E15" t="n">
-        <v>67048</v>
+        <v>67052</v>
       </c>
     </row>
     <row r="16">
@@ -33058,10 +33058,10 @@
         <v>68527</v>
       </c>
       <c r="D16" t="n">
-        <v>-8881</v>
+        <v>-8878</v>
       </c>
       <c r="E16" t="n">
-        <v>59646</v>
+        <v>59649</v>
       </c>
     </row>
     <row r="17">
@@ -33079,10 +33079,10 @@
         <v>68315</v>
       </c>
       <c r="D17" t="n">
-        <v>-4388</v>
+        <v>-4383</v>
       </c>
       <c r="E17" t="n">
-        <v>63927</v>
+        <v>63932</v>
       </c>
     </row>
     <row r="18">
@@ -33100,10 +33100,10 @@
         <v>67934</v>
       </c>
       <c r="D18" t="n">
-        <v>-5990</v>
+        <v>-5986</v>
       </c>
       <c r="E18" t="n">
-        <v>61944</v>
+        <v>61948</v>
       </c>
     </row>
     <row r="19">
@@ -33121,10 +33121,10 @@
         <v>67763</v>
       </c>
       <c r="D19" t="n">
-        <v>-3079</v>
+        <v>-3077</v>
       </c>
       <c r="E19" t="n">
-        <v>64684</v>
+        <v>64686</v>
       </c>
     </row>
     <row r="20">
@@ -33142,10 +33142,10 @@
         <v>64114</v>
       </c>
       <c r="D20" t="n">
-        <v>-1943</v>
+        <v>-1941</v>
       </c>
       <c r="E20" t="n">
-        <v>62171</v>
+        <v>62173</v>
       </c>
     </row>
     <row r="21">
@@ -33163,10 +33163,10 @@
         <v>63425</v>
       </c>
       <c r="D21" t="n">
-        <v>-17340</v>
+        <v>-17339</v>
       </c>
       <c r="E21" t="n">
-        <v>46085</v>
+        <v>46086</v>
       </c>
     </row>
     <row r="22">
@@ -33184,10 +33184,10 @@
         <v>60083</v>
       </c>
       <c r="D22" t="n">
-        <v>-2311</v>
+        <v>-2304</v>
       </c>
       <c r="E22" t="n">
-        <v>57772</v>
+        <v>57779</v>
       </c>
     </row>
     <row r="23">
@@ -33205,10 +33205,10 @@
         <v>57384</v>
       </c>
       <c r="D23" t="n">
-        <v>-7748</v>
+        <v>-7743</v>
       </c>
       <c r="E23" t="n">
-        <v>49636</v>
+        <v>49641</v>
       </c>
     </row>
     <row r="24">
@@ -33226,10 +33226,10 @@
         <v>57239</v>
       </c>
       <c r="D24" t="n">
-        <v>-5422</v>
+        <v>-5419</v>
       </c>
       <c r="E24" t="n">
-        <v>51817</v>
+        <v>51820</v>
       </c>
     </row>
     <row r="25">
@@ -33247,10 +33247,10 @@
         <v>57190</v>
       </c>
       <c r="D25" t="n">
-        <v>-2268</v>
+        <v>-2260</v>
       </c>
       <c r="E25" t="n">
-        <v>54922</v>
+        <v>54930</v>
       </c>
     </row>
     <row r="26">
@@ -33268,10 +33268,10 @@
         <v>54383</v>
       </c>
       <c r="D26" t="n">
-        <v>-5656</v>
+        <v>-5653</v>
       </c>
       <c r="E26" t="n">
-        <v>48727</v>
+        <v>48730</v>
       </c>
     </row>
     <row r="27">
@@ -33289,10 +33289,10 @@
         <v>52599</v>
       </c>
       <c r="D27" t="n">
-        <v>-3000</v>
+        <v>-2999</v>
       </c>
       <c r="E27" t="n">
-        <v>49599</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="28">
@@ -33310,10 +33310,10 @@
         <v>50496</v>
       </c>
       <c r="D28" t="n">
-        <v>-1403</v>
+        <v>-1398</v>
       </c>
       <c r="E28" t="n">
-        <v>49093</v>
+        <v>49098</v>
       </c>
     </row>
     <row r="29">
@@ -33331,10 +33331,10 @@
         <v>49568</v>
       </c>
       <c r="D29" t="n">
-        <v>-4644</v>
+        <v>-4643</v>
       </c>
       <c r="E29" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="30">
@@ -33352,10 +33352,10 @@
         <v>48976</v>
       </c>
       <c r="D30" t="n">
-        <v>-6960</v>
+        <v>-6958</v>
       </c>
       <c r="E30" t="n">
-        <v>42016</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="31">
@@ -33373,10 +33373,10 @@
         <v>48036</v>
       </c>
       <c r="D31" t="n">
-        <v>-6896</v>
+        <v>-6895</v>
       </c>
       <c r="E31" t="n">
-        <v>41140</v>
+        <v>41141</v>
       </c>
     </row>
     <row r="32">
@@ -33394,10 +33394,10 @@
         <v>47915</v>
       </c>
       <c r="D32" t="n">
-        <v>-5922</v>
+        <v>-5918</v>
       </c>
       <c r="E32" t="n">
-        <v>41993</v>
+        <v>41997</v>
       </c>
     </row>
     <row r="33">
@@ -33436,10 +33436,10 @@
         <v>47193</v>
       </c>
       <c r="D34" t="n">
-        <v>-3500</v>
+        <v>-3499</v>
       </c>
       <c r="E34" t="n">
-        <v>43693</v>
+        <v>43694</v>
       </c>
     </row>
     <row r="35">
@@ -33457,10 +33457,10 @@
         <v>45617</v>
       </c>
       <c r="D35" t="n">
-        <v>3699</v>
+        <v>3716</v>
       </c>
       <c r="E35" t="n">
-        <v>49316</v>
+        <v>49333</v>
       </c>
     </row>
     <row r="36">
@@ -33478,10 +33478,10 @@
         <v>43189</v>
       </c>
       <c r="D36" t="n">
-        <v>-593</v>
+        <v>-589</v>
       </c>
       <c r="E36" t="n">
-        <v>42596</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="37">
@@ -33499,10 +33499,10 @@
         <v>40092</v>
       </c>
       <c r="D37" t="n">
-        <v>-1345</v>
+        <v>-1341</v>
       </c>
       <c r="E37" t="n">
-        <v>38747</v>
+        <v>38751</v>
       </c>
     </row>
     <row r="38">
@@ -33520,10 +33520,10 @@
         <v>39409</v>
       </c>
       <c r="D38" t="n">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="E38" t="n">
-        <v>40682</v>
+        <v>40686</v>
       </c>
     </row>
     <row r="39" ht="28.8" customHeight="1">
@@ -33541,10 +33541,10 @@
         <v>37588</v>
       </c>
       <c r="D39" t="n">
-        <v>-1734</v>
+        <v>-1732</v>
       </c>
       <c r="E39" t="n">
-        <v>35854</v>
+        <v>35856</v>
       </c>
     </row>
     <row r="40">
@@ -33583,10 +33583,10 @@
         <v>36165</v>
       </c>
       <c r="D41" t="n">
-        <v>-3575</v>
+        <v>-3573</v>
       </c>
       <c r="E41" t="n">
-        <v>32590</v>
+        <v>32592</v>
       </c>
     </row>
     <row r="42">
@@ -33688,10 +33688,10 @@
         <v>32263</v>
       </c>
       <c r="D46" t="n">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="E46" t="n">
-        <v>32226</v>
+        <v>32228</v>
       </c>
     </row>
     <row r="47">
@@ -33709,10 +33709,10 @@
         <v>32012</v>
       </c>
       <c r="D47" t="n">
-        <v>-1464</v>
+        <v>-1460</v>
       </c>
       <c r="E47" t="n">
-        <v>30548</v>
+        <v>30552</v>
       </c>
     </row>
     <row r="48" ht="28.8" customHeight="1">
@@ -33772,10 +33772,10 @@
         <v>31126</v>
       </c>
       <c r="D50" t="n">
-        <v>-1714</v>
+        <v>-1713</v>
       </c>
       <c r="E50" t="n">
-        <v>29412</v>
+        <v>29413</v>
       </c>
     </row>
     <row r="51">
@@ -33793,10 +33793,10 @@
         <v>30864</v>
       </c>
       <c r="D51" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E51" t="n">
-        <v>31091</v>
+        <v>31101</v>
       </c>
     </row>
     <row r="52">
@@ -38065,6 +38065,12 @@
       <c r="O44" s="32" t="n">
         <v>8.68</v>
       </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>8.68</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="23" t="inlineStr">
@@ -38208,6 +38214,12 @@
         <v>0</v>
       </c>
       <c r="O47" s="32" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
         <v>8.68</v>
       </c>
     </row>
@@ -38299,7 +38311,7 @@
       <c r="N49" s="32" t="n"/>
       <c r="O49" s="32" t="n"/>
       <c r="Q49" t="n">
-        <v>8.68</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="50" ht="28.8" customHeight="1">
@@ -38666,16 +38678,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="23" t="inlineStr">
-        <is>
-          <t>#60</t>
-        </is>
-      </c>
-      <c r="B61" s="7" t="inlineStr">
-        <is>
-          <t>Chainsaw Man</t>
-        </is>
-      </c>
+      <c r="A61" s="23" t="n"/>
+      <c r="B61" s="7" t="n"/>
       <c r="C61" s="32" t="n"/>
       <c r="D61" s="32" t="n"/>
       <c r="E61" s="32" t="n"/>
@@ -38689,21 +38693,10 @@
       <c r="M61" s="32" t="n"/>
       <c r="N61" s="32" t="n"/>
       <c r="O61" s="32" t="n"/>
-      <c r="Q61" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="62">
-      <c r="A62" s="23" t="inlineStr">
-        <is>
-          <t>#61</t>
-        </is>
-      </c>
-      <c r="B62" s="7" t="inlineStr">
-        <is>
-          <t>Shoujo Shuumatsu Ryokou</t>
-        </is>
-      </c>
+      <c r="A62" s="23" t="n"/>
+      <c r="B62" s="7" t="n"/>
       <c r="C62" s="32" t="n"/>
       <c r="D62" s="32" t="n"/>
       <c r="E62" s="32" t="n"/>
@@ -38717,9 +38710,6 @@
       <c r="M62" s="32" t="n"/>
       <c r="N62" s="32" t="n"/>
       <c r="O62" s="32" t="n"/>
-      <c r="Q62" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="23" t="n"/>
@@ -46974,10 +46964,10 @@
         <v>450539</v>
       </c>
       <c r="L2" t="n">
-        <v>46956</v>
+        <v>46980</v>
       </c>
       <c r="M2" t="n">
-        <v>497495</v>
+        <v>497519</v>
       </c>
     </row>
     <row r="3">
@@ -47019,10 +47009,10 @@
         <v>380452</v>
       </c>
       <c r="L3" t="n">
-        <v>28977</v>
+        <v>28996</v>
       </c>
       <c r="M3" t="n">
-        <v>409429</v>
+        <v>409448</v>
       </c>
     </row>
     <row r="4">
@@ -47064,10 +47054,10 @@
         <v>337956</v>
       </c>
       <c r="L4" t="n">
-        <v>12212</v>
+        <v>12223</v>
       </c>
       <c r="M4" t="n">
-        <v>350168</v>
+        <v>350179</v>
       </c>
     </row>
     <row r="5">
@@ -47109,10 +47099,10 @@
         <v>384868</v>
       </c>
       <c r="L5" t="n">
-        <v>41715</v>
+        <v>41748</v>
       </c>
       <c r="M5" t="n">
-        <v>426583</v>
+        <v>426616</v>
       </c>
     </row>
     <row r="6">
@@ -47154,10 +47144,10 @@
         <v>341927</v>
       </c>
       <c r="L6" t="n">
-        <v>27735</v>
+        <v>27757</v>
       </c>
       <c r="M6" t="n">
-        <v>369662</v>
+        <v>369684</v>
       </c>
     </row>
     <row r="7">
@@ -47199,10 +47189,10 @@
         <v>304166</v>
       </c>
       <c r="L7" t="n">
-        <v>24616</v>
+        <v>24638</v>
       </c>
       <c r="M7" t="n">
-        <v>328782</v>
+        <v>328804</v>
       </c>
     </row>
     <row r="8">
@@ -47244,10 +47234,10 @@
         <v>297432</v>
       </c>
       <c r="L8" t="n">
-        <v>17795</v>
+        <v>17817</v>
       </c>
       <c r="M8" t="n">
-        <v>315227</v>
+        <v>315249</v>
       </c>
     </row>
     <row r="9">
@@ -47289,10 +47279,10 @@
         <v>277021</v>
       </c>
       <c r="L9" t="n">
-        <v>11374</v>
+        <v>11390</v>
       </c>
       <c r="M9" t="n">
-        <v>288395</v>
+        <v>288411</v>
       </c>
     </row>
     <row r="10">
@@ -47334,10 +47324,10 @@
         <v>301800</v>
       </c>
       <c r="L10" t="n">
-        <v>29768</v>
+        <v>29793</v>
       </c>
       <c r="M10" t="n">
-        <v>331568</v>
+        <v>331593</v>
       </c>
     </row>
     <row r="11">
@@ -47379,10 +47369,10 @@
         <v>236707</v>
       </c>
       <c r="L11" t="n">
-        <v>5550</v>
+        <v>5552</v>
       </c>
       <c r="M11" t="n">
-        <v>242257</v>
+        <v>242259</v>
       </c>
     </row>
     <row r="12">
@@ -47424,10 +47414,10 @@
         <v>225793</v>
       </c>
       <c r="L12" t="n">
-        <v>10747</v>
+        <v>10755</v>
       </c>
       <c r="M12" t="n">
-        <v>236540</v>
+        <v>236548</v>
       </c>
     </row>
     <row r="13">
@@ -47469,10 +47459,10 @@
         <v>248346</v>
       </c>
       <c r="L13" t="n">
-        <v>27055</v>
+        <v>27081</v>
       </c>
       <c r="M13" t="n">
-        <v>275401</v>
+        <v>275427</v>
       </c>
     </row>
     <row r="14">
@@ -47514,10 +47504,10 @@
         <v>208489</v>
       </c>
       <c r="L14" t="n">
-        <v>10489</v>
+        <v>10495</v>
       </c>
       <c r="M14" t="n">
-        <v>218978</v>
+        <v>218984</v>
       </c>
     </row>
     <row r="15">
@@ -47559,10 +47549,10 @@
         <v>240290</v>
       </c>
       <c r="L15" t="n">
-        <v>19058</v>
+        <v>19071</v>
       </c>
       <c r="M15" t="n">
-        <v>259348</v>
+        <v>259361</v>
       </c>
     </row>
     <row r="16">
@@ -47604,10 +47594,10 @@
         <v>195713</v>
       </c>
       <c r="L16" t="n">
-        <v>14268</v>
+        <v>14283</v>
       </c>
       <c r="M16" t="n">
-        <v>209981</v>
+        <v>209996</v>
       </c>
     </row>
     <row r="17">
@@ -47649,10 +47639,10 @@
         <v>182779</v>
       </c>
       <c r="L17" t="n">
-        <v>12822</v>
+        <v>12831</v>
       </c>
       <c r="M17" t="n">
-        <v>195601</v>
+        <v>195610</v>
       </c>
     </row>
     <row r="18">
@@ -47694,10 +47684,10 @@
         <v>213218</v>
       </c>
       <c r="L18" t="n">
-        <v>20688</v>
+        <v>20715</v>
       </c>
       <c r="M18" t="n">
-        <v>233906</v>
+        <v>233933</v>
       </c>
     </row>
     <row r="19">
@@ -47739,10 +47729,10 @@
         <v>165782</v>
       </c>
       <c r="L19" t="n">
-        <v>6158</v>
+        <v>6164</v>
       </c>
       <c r="M19" t="n">
-        <v>171940</v>
+        <v>171946</v>
       </c>
     </row>
     <row r="20">
@@ -47784,10 +47774,10 @@
         <v>156042</v>
       </c>
       <c r="L20" t="n">
-        <v>4249</v>
+        <v>4251</v>
       </c>
       <c r="M20" t="n">
-        <v>160291</v>
+        <v>160293</v>
       </c>
     </row>
     <row r="21">
@@ -47829,10 +47819,10 @@
         <v>162215</v>
       </c>
       <c r="L21" t="n">
-        <v>8501</v>
+        <v>8508</v>
       </c>
       <c r="M21" t="n">
-        <v>170716</v>
+        <v>170723</v>
       </c>
     </row>
     <row r="22">
@@ -47874,10 +47864,10 @@
         <v>159857</v>
       </c>
       <c r="L22" t="n">
-        <v>7575</v>
+        <v>7579</v>
       </c>
       <c r="M22" t="n">
-        <v>167432</v>
+        <v>167436</v>
       </c>
     </row>
     <row r="23">
@@ -47919,10 +47909,10 @@
         <v>187278</v>
       </c>
       <c r="L23" t="n">
-        <v>23282</v>
+        <v>23301</v>
       </c>
       <c r="M23" t="n">
-        <v>210560</v>
+        <v>210579</v>
       </c>
     </row>
     <row r="24">
@@ -47964,10 +47954,10 @@
         <v>201921</v>
       </c>
       <c r="L24" t="n">
-        <v>42213</v>
+        <v>42259</v>
       </c>
       <c r="M24" t="n">
-        <v>244134</v>
+        <v>244180</v>
       </c>
     </row>
     <row r="25">
@@ -48009,10 +47999,10 @@
         <v>148222</v>
       </c>
       <c r="L25" t="n">
-        <v>6771</v>
+        <v>6773</v>
       </c>
       <c r="M25" t="n">
-        <v>154993</v>
+        <v>154995</v>
       </c>
     </row>
     <row r="26">
@@ -48054,10 +48044,10 @@
         <v>141447</v>
       </c>
       <c r="L26" t="n">
-        <v>6278</v>
+        <v>6282</v>
       </c>
       <c r="M26" t="n">
-        <v>147725</v>
+        <v>147729</v>
       </c>
     </row>
     <row r="27">
@@ -48099,10 +48089,10 @@
         <v>139201</v>
       </c>
       <c r="L27" t="n">
-        <v>5827</v>
+        <v>5833</v>
       </c>
       <c r="M27" t="n">
-        <v>145028</v>
+        <v>145034</v>
       </c>
     </row>
     <row r="28">
@@ -48144,10 +48134,10 @@
         <v>142048</v>
       </c>
       <c r="L28" t="n">
-        <v>6166</v>
+        <v>6171</v>
       </c>
       <c r="M28" t="n">
-        <v>148214</v>
+        <v>148219</v>
       </c>
     </row>
     <row r="29">
@@ -48189,10 +48179,10 @@
         <v>161498</v>
       </c>
       <c r="L29" t="n">
-        <v>19081</v>
+        <v>19087</v>
       </c>
       <c r="M29" t="n">
-        <v>180579</v>
+        <v>180585</v>
       </c>
     </row>
     <row r="30">
@@ -48234,10 +48224,10 @@
         <v>137303</v>
       </c>
       <c r="L30" t="n">
-        <v>7974</v>
+        <v>7981</v>
       </c>
       <c r="M30" t="n">
-        <v>145277</v>
+        <v>145284</v>
       </c>
     </row>
     <row r="31">
@@ -48279,10 +48269,10 @@
         <v>130378</v>
       </c>
       <c r="L31" t="n">
-        <v>5689</v>
+        <v>5692</v>
       </c>
       <c r="M31" t="n">
-        <v>136067</v>
+        <v>136070</v>
       </c>
     </row>
     <row r="32">
@@ -48324,10 +48314,10 @@
         <v>133068</v>
       </c>
       <c r="L32" t="n">
-        <v>7597</v>
+        <v>7601</v>
       </c>
       <c r="M32" t="n">
-        <v>140665</v>
+        <v>140669</v>
       </c>
     </row>
     <row r="33">
@@ -48369,10 +48359,10 @@
         <v>127496</v>
       </c>
       <c r="L33" t="n">
-        <v>4835</v>
+        <v>4840</v>
       </c>
       <c r="M33" t="n">
-        <v>132331</v>
+        <v>132336</v>
       </c>
     </row>
     <row r="34">
@@ -48414,10 +48404,10 @@
         <v>127209</v>
       </c>
       <c r="L34" t="n">
-        <v>4802</v>
+        <v>4807</v>
       </c>
       <c r="M34" t="n">
-        <v>132011</v>
+        <v>132016</v>
       </c>
     </row>
     <row r="35">
@@ -48459,10 +48449,10 @@
         <v>124931</v>
       </c>
       <c r="L35" t="n">
-        <v>4472</v>
+        <v>4478</v>
       </c>
       <c r="M35" t="n">
-        <v>129403</v>
+        <v>129409</v>
       </c>
     </row>
     <row r="36">
@@ -48504,10 +48494,10 @@
         <v>127352</v>
       </c>
       <c r="L36" t="n">
-        <v>6528</v>
+        <v>6529</v>
       </c>
       <c r="M36" t="n">
-        <v>133880</v>
+        <v>133881</v>
       </c>
     </row>
     <row r="37">
@@ -48549,10 +48539,10 @@
         <v>133807</v>
       </c>
       <c r="L37" t="n">
-        <v>9561</v>
+        <v>9566</v>
       </c>
       <c r="M37" t="n">
-        <v>143368</v>
+        <v>143373</v>
       </c>
     </row>
     <row r="38" ht="28.8" customHeight="1">
@@ -48594,10 +48584,10 @@
         <v>154775</v>
       </c>
       <c r="L38" t="n">
-        <v>19260</v>
+        <v>19269</v>
       </c>
       <c r="M38" t="n">
-        <v>174035</v>
+        <v>174044</v>
       </c>
     </row>
     <row r="39">
@@ -48639,10 +48629,10 @@
         <v>203853</v>
       </c>
       <c r="L39" t="n">
-        <v>49413</v>
+        <v>49462</v>
       </c>
       <c r="M39" t="n">
-        <v>253266</v>
+        <v>253315</v>
       </c>
     </row>
     <row r="40">
@@ -48684,10 +48674,10 @@
         <v>134344</v>
       </c>
       <c r="L40" t="n">
-        <v>11733</v>
+        <v>11743</v>
       </c>
       <c r="M40" t="n">
-        <v>146077</v>
+        <v>146087</v>
       </c>
     </row>
     <row r="41">
@@ -48729,10 +48719,10 @@
         <v>134582</v>
       </c>
       <c r="L41" t="n">
-        <v>13682</v>
+        <v>13697</v>
       </c>
       <c r="M41" t="n">
-        <v>148264</v>
+        <v>148279</v>
       </c>
     </row>
     <row r="42">
@@ -48774,10 +48764,10 @@
         <v>122218</v>
       </c>
       <c r="L42" t="n">
-        <v>6941</v>
+        <v>6948</v>
       </c>
       <c r="M42" t="n">
-        <v>129159</v>
+        <v>129166</v>
       </c>
     </row>
     <row r="43" ht="28.8" customHeight="1">
@@ -48819,10 +48809,10 @@
         <v>144062</v>
       </c>
       <c r="L43" t="n">
-        <v>16104</v>
+        <v>16118</v>
       </c>
       <c r="M43" t="n">
-        <v>160166</v>
+        <v>160180</v>
       </c>
     </row>
     <row r="44">
@@ -48899,10 +48889,10 @@
         <v>130904</v>
       </c>
       <c r="L45" t="n">
-        <v>15616</v>
+        <v>15641</v>
       </c>
       <c r="M45" t="n">
-        <v>146520</v>
+        <v>146545</v>
       </c>
     </row>
     <row r="46">
@@ -48979,10 +48969,10 @@
         <v>139067</v>
       </c>
       <c r="L47" t="n">
-        <v>22049</v>
+        <v>22067</v>
       </c>
       <c r="M47" t="n">
-        <v>161116</v>
+        <v>161134</v>
       </c>
     </row>
     <row r="48">
@@ -49133,10 +49123,10 @@
         <v>134397</v>
       </c>
       <c r="L51" t="n">
-        <v>14733</v>
+        <v>14749</v>
       </c>
       <c r="M51" t="n">
-        <v>149130</v>
+        <v>149146</v>
       </c>
     </row>
     <row r="52">
@@ -49162,10 +49152,10 @@
         <v>167772</v>
       </c>
       <c r="L52" t="n">
-        <v>88329</v>
+        <v>88404</v>
       </c>
       <c r="M52" t="n">
-        <v>256101</v>
+        <v>256176</v>
       </c>
     </row>
     <row r="53" ht="28.8" customHeight="1">
@@ -49191,10 +49181,10 @@
         <v>131436</v>
       </c>
       <c r="L53" t="n">
-        <v>13332</v>
+        <v>13341</v>
       </c>
       <c r="M53" t="n">
-        <v>144768</v>
+        <v>144777</v>
       </c>
     </row>
     <row r="54">
@@ -49220,10 +49210,10 @@
         <v>126871</v>
       </c>
       <c r="L54" t="n">
-        <v>57175</v>
+        <v>57237</v>
       </c>
       <c r="M54" t="n">
-        <v>184046</v>
+        <v>184108</v>
       </c>
     </row>
     <row r="55">
@@ -49249,10 +49239,10 @@
         <v>121594</v>
       </c>
       <c r="L55" t="n">
-        <v>15296</v>
+        <v>15307</v>
       </c>
       <c r="M55" t="n">
-        <v>136890</v>
+        <v>136901</v>
       </c>
     </row>
     <row r="56">
@@ -49276,7 +49266,7 @@
       <c r="J56" s="35" t="n"/>
       <c r="K56" s="11" t="n"/>
       <c r="M56" t="n">
-        <v>137103</v>
+        <v>137123</v>
       </c>
     </row>
     <row r="57">
